--- a/sprints-status.xlsx
+++ b/sprints-status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="204">
   <si>
     <t>Usuarios</t>
   </si>
@@ -601,9 +601,6 @@
     <t>carrito.ejs</t>
   </si>
   <si>
-    <t>detalle-producto.ejs</t>
-  </si>
-  <si>
     <t>crear.ejs</t>
   </si>
   <si>
@@ -631,49 +628,246 @@
     <t>Subido a GIT</t>
   </si>
   <si>
-    <t>falta apuntar a las funciones que ya estan en el controller</t>
-  </si>
-  <si>
-    <t>verificar sequelizer relacion
-campos underscored</t>
-  </si>
-  <si>
-    <t>revisar funciones y probar</t>
-  </si>
-  <si>
-    <t>falta hacerlo dinamico</t>
-  </si>
-  <si>
-    <t>probar</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
-    <t>falta moverlo de carpeta</t>
-  </si>
-  <si>
-    <t>adminProductos.ejs</t>
-  </si>
-  <si>
     <t>revisar relación sequelizer con carrito</t>
   </si>
   <si>
-    <t>revisar nombres funciones:
-1)productosControllers.detalle (moverla de detalle controller a productosController)
-2)productosControllers.editar
-3)productosControllers.actualizar
-4)productosControllers.borrar
-ver que no falte ninguna de las que ya estan en el router y probarlas</t>
-  </si>
-  <si>
     <t>eliminarlo y pasar la funcion detalle a productosController</t>
   </si>
   <si>
-    <t>falta hacerlo dinamico y moverlo de carpeta y cambiarle el nombre a "admin"</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>app.js</t>
+  </si>
+  <si>
+    <t>structure.sql</t>
+  </si>
+  <si>
+    <t>falta apuntar a las funciones que ya estan en el controller - ok</t>
+  </si>
+  <si>
+    <t>revisar funciones y probar - ok</t>
+  </si>
+  <si>
+    <t>1)modifique nombres de funciones - ok
+2)probar</t>
+  </si>
+  <si>
+    <t>1)cambiar campos underscored - OK
+2)relacion
+3)probar</t>
+  </si>
+  <si>
+    <t>editar.ejs</t>
+  </si>
+  <si>
+    <t>1)parametros form action=
+2)probar</t>
+  </si>
+  <si>
+    <t>admin.ejs</t>
+  </si>
+  <si>
+    <t>falta moverlo de carpeta - OK
+cambiarle el nombre detalle-producto a detalle.ejs - OK</t>
+  </si>
+  <si>
+    <t>detalle.ejs</t>
+  </si>
+  <si>
+    <t>modificar llamada a detalle-producto - OK</t>
+  </si>
+  <si>
+    <t>cambios en nombres campos user/carrito/pivot</t>
+  </si>
+  <si>
+    <t>se agrego subida de foto</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta hacerlo dinamico - OK
+moverlo de carpeta - OK
+cambiarle el nombre 'adminProductos a "admin" - OK
+boton agregar - OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boton editar -&gt; editar - href -  OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boton eliminar -&gt;elimine - Form action - OK</t>
+    </r>
+  </si>
+  <si>
+    <t>ver rutas para editar y detalle - ok
+cambie ruta detalle - ok</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta hacerlo dinamico - OK
+falta precio - OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+falta foto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta el link que lleve al detalle de cada producto - OK</t>
+    </r>
+  </si>
+  <si>
+    <t>I-revisar nombres funciones:
+1)productosControllers.detalle (moverla de detalle controller a productosController) - MODIFICADA - OK
+2)productosControllers.editar - MODIFICADA
+3)productosControllers.actualizar - MODIFICADA
+4)productosControllers.borrar - MODIFICADA
+II-ver que no falte ninguna de las que ya estan en el router - ok
+III-probarlas con las vistas dinamicas - OK</t>
+  </si>
+  <si>
+    <t>listo</t>
+  </si>
+  <si>
+    <t>cambios de estilo para admin.ejs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crear la vista para editar productos - OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">probar si funciona (form action = "") - OK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ver la ruta porque no aparece - OK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verificar sequelizer relacion producto/user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+campos underscored - ok</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -753,7 +947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1116,6 +1310,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1123,7 +1354,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,9 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1298,7 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,12 +1547,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,8 +1594,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1357,7 +1612,48 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2112,7 +2408,7 @@
       <c r="C14" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="98" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2121,14 +2417,14 @@
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
@@ -2146,21 +2442,21 @@
       <c r="C19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -2903,7 +3199,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="101" t="s">
         <v>127</v>
       </c>
       <c r="C71" s="25" t="s">
@@ -2914,7 +3210,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="96"/>
+      <c r="B72" s="102"/>
       <c r="C72" s="25" t="s">
         <v>147</v>
       </c>
@@ -2923,7 +3219,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="96"/>
+      <c r="B73" s="102"/>
       <c r="C73" s="25" t="s">
         <v>138</v>
       </c>
@@ -3046,45 +3342,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="65" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="60"/>
       <c r="E3" s="66"/>
       <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="69" t="s">
         <v>164</v>
@@ -3092,122 +3386,128 @@
       <c r="D4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>200</v>
+      </c>
       <c r="F4" s="72" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="76" t="s">
-        <v>183</v>
+      <c r="E5" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="76" t="s">
-        <v>183</v>
+      <c r="E6" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>190</v>
+      <c r="E8" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>190</v>
+      <c r="E9" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="75" t="s">
         <v>180</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="75"/>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>190</v>
+      <c r="E13" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -3218,259 +3518,369 @@
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="24"/>
       <c r="E15" s="15"/>
       <c r="F15" s="58"/>
     </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="89"/>
+        <v>170</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="76"/>
+      <c r="C20" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="75"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="75"/>
+    </row>
+    <row r="24" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B24" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="78" t="s">
+      <c r="C24" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="76" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="76"/>
-    </row>
-    <row r="23" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B23" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="76"/>
+      <c r="E24" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="76"/>
+      <c r="C25" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="75"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="75"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82" t="s">
+      <c r="D27" s="80"/>
+      <c r="E27" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="82"/>
+    </row>
+    <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="82"/>
+    </row>
+    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="80"/>
+      <c r="E36" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="58"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
+      <c r="F36" s="85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="91"/>
+      <c r="C39" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="91"/>
+      <c r="C41" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="72" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="76"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="76"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="76"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="59"/>
+      <c r="D41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="91"/>
+      <c r="C43" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F36">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F28">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/sprints-status.xlsx
+++ b/sprints-status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="206">
   <si>
     <t>Usuarios</t>
   </si>
@@ -631,15 +631,9 @@
     <t>si</t>
   </si>
   <si>
-    <t>revisar relación sequelizer con carrito</t>
-  </si>
-  <si>
     <t>eliminarlo y pasar la funcion detalle a productosController</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>app.js</t>
   </si>
   <si>
@@ -649,23 +643,7 @@
     <t>falta apuntar a las funciones que ya estan en el controller - ok</t>
   </si>
   <si>
-    <t>revisar funciones y probar - ok</t>
-  </si>
-  <si>
-    <t>1)modifique nombres de funciones - ok
-2)probar</t>
-  </si>
-  <si>
-    <t>1)cambiar campos underscored - OK
-2)relacion
-3)probar</t>
-  </si>
-  <si>
     <t>editar.ejs</t>
-  </si>
-  <si>
-    <t>1)parametros form action=
-2)probar</t>
   </si>
   <si>
     <t>admin.ejs</t>
@@ -748,39 +726,6 @@
 cambie ruta detalle - ok</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>falta hacerlo dinamico - OK
-falta precio - OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-falta foto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>falta el link que lleve al detalle de cada producto - OK</t>
-    </r>
-  </si>
-  <si>
     <t>I-revisar nombres funciones:
 1)productosControllers.detalle (moverla de detalle controller a productosController) - MODIFICADA - OK
 2)productosControllers.editar - MODIFICADA
@@ -847,6 +792,36 @@
     </r>
   </si>
   <si>
+    <t>producto_carrito.js</t>
+  </si>
+  <si>
+    <t>nuevo</t>
+  </si>
+  <si>
+    <t>1)modifique nombres de funciones - ok
+2)probar - ok</t>
+  </si>
+  <si>
+    <t>1)cambiar campos underscored - OK
+2)relacion - modificación y creación producto_carrito.js - Ok</t>
+  </si>
+  <si>
+    <t>cambio relación - ok</t>
+  </si>
+  <si>
+    <t>revisar funciones y probar - ok
+crear carrito para user logeado - falta guardar user</t>
+  </si>
+  <si>
+    <t>verificar sequelizer relacion carrito/user
+campos underscored - ok</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)modifique nombres de funciones - ok
+2) cambios delete producto del carrito - ok
+3) cambios agregar producto - </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -855,7 +830,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>verificar sequelizer relacion producto/user</t>
+      <t>falta total</t>
     </r>
     <r>
       <rPr>
@@ -866,7 +841,67 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-campos underscored - ok</t>
+4) cambios mostrar carrito - ok
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5) reconozca session carrito / usuario - falta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)parametros form action / ok
+2)cambios dinamico - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta hacerlo dinamico - OK
+falta precio - OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+falta mejorar foto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falta el link que lleve al detalle de cada producto - OK</t>
     </r>
   </si>
 </sst>
@@ -1354,7 +1389,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,9 +1546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,9 +1555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1573,27 +1599,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1604,6 +1609,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1612,7 +1662,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2408,7 +2463,7 @@
       <c r="C14" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="108" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2417,14 +2472,14 @@
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="109"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="100"/>
+      <c r="D16" s="110"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
@@ -2442,21 +2497,21 @@
       <c r="C19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="108"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="109"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="110"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -3199,7 +3254,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="101" t="s">
+      <c r="B71" s="111" t="s">
         <v>127</v>
       </c>
       <c r="C71" s="25" t="s">
@@ -3210,7 +3265,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="102"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="25" t="s">
         <v>147</v>
       </c>
@@ -3219,7 +3274,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="102"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="25" t="s">
         <v>138</v>
       </c>
@@ -3342,9 +3397,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F43"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3368,10 +3425,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="60"/>
       <c r="E3" s="66"/>
       <c r="F3" s="61"/>
@@ -3387,7 +3444,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F4" s="72" t="s">
         <v>177</v>
@@ -3395,119 +3452,119 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="76" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>180</v>
+      <c r="E8" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>180</v>
+      <c r="E9" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="75"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="74"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>180</v>
+      <c r="E11" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>180</v>
+      <c r="E13" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -3518,10 +3575,10 @@
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="24"/>
       <c r="E15" s="15"/>
       <c r="F15" s="58"/>
@@ -3530,109 +3587,109 @@
       <c r="B16" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="87" t="s">
+      <c r="C16" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="85" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="75" t="s">
+      <c r="E18" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="75" t="s">
+      <c r="E20" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="68" t="s">
@@ -3641,48 +3698,50 @@
       <c r="C24" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="82" t="s">
+      <c r="E24" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" s="75"/>
+      <c r="E25" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="81" t="s">
+      <c r="D27" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="79" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3694,10 +3753,10 @@
       <c r="F28" s="59"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="24"/>
       <c r="E29" s="15"/>
       <c r="F29" s="58"/>
@@ -3709,77 +3768,85 @@
       <c r="C30" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="96" t="s">
+      <c r="D30" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="93" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="82"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="80"/>
     </row>
     <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="82" t="s">
+      <c r="D32" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="82"/>
-    </row>
-    <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="80"/>
+    </row>
+    <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="82" t="s">
+      <c r="D34" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="82"/>
-    </row>
-    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="80"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="85" t="s">
+      <c r="D36" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="82" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3791,47 +3858,64 @@
       <c r="F37" s="23"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="92" t="s">
-        <v>181</v>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89" t="s">
+        <v>179</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="91"/>
-      <c r="C41" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="39" t="s">
+      <c r="B41" s="88"/>
+      <c r="C41" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="107" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="91"/>
-      <c r="C43" s="92" t="s">
-        <v>195</v>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89" t="s">
+        <v>189</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="108" t="s">
-        <v>201</v>
+      <c r="E43" s="98" t="s">
+        <v>194</v>
       </c>
       <c r="F43" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3842,41 +3926,46 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F30:F36">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F36">
+  <conditionalFormatting sqref="F15:F28">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F28">
+  <conditionalFormatting sqref="F3:F14">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="F43">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
